--- a/Python/Algorithms/PrimeNumbersAlgComparison.xlsx
+++ b/Python/Algorithms/PrimeNumbersAlgComparison.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="5910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="5910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
   <si>
     <t>x</t>
   </si>
@@ -82,15 +84,70 @@
   <si>
     <t>wrt x</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>(n-3)*m</t>
+  </si>
+  <si>
+    <t>n*m</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>isStringEnd</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +183,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -153,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,21 +241,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -206,7 +340,7 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -214,6 +348,40 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,1060 +708,1060 @@
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="14" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <f>10^A3</f>
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>4</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <f>100*(C3)/B3</f>
         <v>40</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <f>SQRT(B3)</f>
         <v>3.1622776601683795</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <f>100*(E3)/B3</f>
         <v>31.622776601683796</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <f>D3*F3/100</f>
         <v>12.649110640673518</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I17" si="0">H3*100/E3</f>
         <v>63.245553203367585</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <f>100*H3/B3</f>
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <f t="shared" ref="B4:B28" si="1">10^A4</f>
         <v>100</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>25</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D28" si="2">100*(C4)/B4</f>
         <v>25</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E28" si="3">SQRT(B4)</f>
         <v>10</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <f t="shared" ref="F4:F27" si="4">100*(E4)/B4</f>
         <v>10</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G28" si="5">D4*F4/100</f>
         <v>2.5</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>4</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <f t="shared" ref="J4:J28" si="6">100*H4/B4</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>168</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <f t="shared" si="3"/>
         <v>31.622776601683793</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683791</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f t="shared" si="5"/>
         <v>0.53126264690828773</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>11</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>34.785054261852174</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <f t="shared" si="6"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>1229</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" si="2"/>
         <v>12.29</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f t="shared" si="5"/>
         <v>0.1229</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>25</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <f t="shared" ref="A7:A28" si="7">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>9592</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f t="shared" si="2"/>
         <v>9.5920000000000005</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f t="shared" si="3"/>
         <v>316.22776601683796</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <f t="shared" si="4"/>
         <v>0.31622776601683794</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f t="shared" si="5"/>
         <v>3.0332567316335095E-2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>65</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>20.554804791094465</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <f t="shared" si="6"/>
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>78498</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" si="2"/>
         <v>7.8498000000000001</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="5"/>
         <v>7.8498000000000005E-3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>168</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <f t="shared" si="6"/>
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>664579</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <f t="shared" si="2"/>
         <v>6.6457899999999999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <f t="shared" si="3"/>
         <v>3162.2776601683795</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683798E-2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <f t="shared" si="5"/>
         <v>2.1015833251170415E-3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>446</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>14.103758364350972</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <f t="shared" si="6"/>
         <v>4.4600000000000004E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>5761455</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f t="shared" si="2"/>
         <v>5.7614549999999998</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="13">
         <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <f t="shared" si="5"/>
         <v>5.7614549999999997E-4</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>1229</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>12.29</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <f t="shared" si="6"/>
         <v>1.2290000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <f t="shared" si="1"/>
         <v>1000000000</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>50847534</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" si="2"/>
         <v>5.0847534000000003</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f t="shared" si="3"/>
         <v>31622.776601683792</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <f t="shared" si="4"/>
         <v>3.162277660168379E-3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <f t="shared" si="5"/>
         <v>1.6079402084285209E-4</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>3401</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>10.754906322232658</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <f t="shared" si="6"/>
         <v>3.4010000000000003E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>455052511</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <f t="shared" si="2"/>
         <v>4.5505251099999997</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="13">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f t="shared" si="5"/>
         <v>4.5505251100000004E-5</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>9592</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>9.5920000000000005</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <f t="shared" si="6"/>
         <v>9.5920000000000003E-5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>100000000000</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>4118054813</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <f t="shared" si="2"/>
         <v>4.1180548129999996</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <f t="shared" si="3"/>
         <v>316227.76601683791</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683794E-4</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <f t="shared" si="5"/>
         <v>1.3022432738498772E-5</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>27293</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>8.6308044178975578</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <f t="shared" si="6"/>
         <v>2.7293000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>37607912018</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <f t="shared" si="2"/>
         <v>3.7607912018</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="13">
         <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <f t="shared" si="5"/>
         <v>3.7607912018000004E-6</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>78498</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>7.8498000000000001</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <f t="shared" si="6"/>
         <v>7.8498000000000006E-6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <f t="shared" si="1"/>
         <v>10000000000000</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>346065536839</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <f t="shared" si="2"/>
         <v>3.4606553683899999</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <f t="shared" si="3"/>
         <v>3162277.6601683795</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683795E-5</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <f t="shared" si="5"/>
         <v>1.094355316100147E-6</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>227647</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>7.1988302250435101</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <f t="shared" si="6"/>
         <v>2.2764700000000002E-6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <f t="shared" si="1"/>
         <v>100000000000000</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>3204941750802</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <f t="shared" si="2"/>
         <v>3.2049417508019999</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="13">
         <f t="shared" si="4"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <f t="shared" si="5"/>
         <v>3.2049417508020003E-7</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>664579</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>6.6457899999999999</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <f t="shared" si="6"/>
         <v>6.6457900000000001E-7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <f t="shared" si="1"/>
         <v>1000000000000000</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>29844570422669</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <f t="shared" si="2"/>
         <v>2.9844570422669001</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <f t="shared" si="3"/>
         <v>31622776.601683792</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683792E-6</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <f t="shared" si="5"/>
         <v>9.4376818324928139E-8</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>1951957</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>6.1726300147092896</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <f t="shared" si="6"/>
         <v>1.9519569999999999E-7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <f t="shared" si="1"/>
         <v>1E+16</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>279238341033925</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <f t="shared" si="2"/>
         <v>2.7923834103392502</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <f t="shared" si="3"/>
         <v>100000000</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="13">
         <f t="shared" si="4"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <f t="shared" si="5"/>
         <v>2.79238341033925E-8</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>5761455</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <f>H18*100/E18</f>
         <v>5.7614549999999998</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <f t="shared" si="6"/>
         <v>5.7614549999999999E-8</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <f t="shared" si="1"/>
         <v>1E+17</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>2623557157654230</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <f t="shared" si="2"/>
         <v>2.62355715765423</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <f t="shared" si="3"/>
         <v>316227766.01683795</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683797E-7</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <f t="shared" si="5"/>
         <v>8.2964161898248238E-9</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>17082669</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <f t="shared" ref="I19:I28" si="8">H19*100/E19</f>
         <v>5.4020142554750903</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <f t="shared" si="6"/>
         <v>1.7082668999999999E-8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <f t="shared" si="1"/>
         <v>1E+18</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>2.47399542877408E+16</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <f t="shared" si="2"/>
         <v>2.4739954287740802</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <f t="shared" si="3"/>
         <v>1000000000</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="13">
         <f t="shared" si="4"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <f t="shared" si="5"/>
         <v>2.4739954287740799E-9</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8">
+      <c r="H20" s="10"/>
+      <c r="I20" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <f t="shared" si="1"/>
         <v>1E+19</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>2.34057667276344E+17</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <f t="shared" si="2"/>
         <v>2.3405766727634401</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <f t="shared" si="3"/>
         <v>3162277660.1683793</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683792E-8</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="9">
         <f t="shared" si="5"/>
         <v>7.4015533241910618E-10</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="8">
+      <c r="H21" s="10"/>
+      <c r="I21" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <f t="shared" si="1"/>
         <v>1E+20</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>2.2208196025609101E+18</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <f t="shared" si="2"/>
         <v>2.2208196025609102</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="3"/>
         <v>10000000000</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="13">
         <f t="shared" si="4"/>
         <v>1E-8</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <f t="shared" si="5"/>
         <v>2.22081960256091E-10</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="8">
+      <c r="H22" s="10"/>
+      <c r="I22" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <f t="shared" si="1"/>
         <v>1E+21</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>2.1127269486018699E+19</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <f t="shared" si="2"/>
         <v>2.1127269486018698</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <f t="shared" si="3"/>
         <v>31622776601.683792</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683795E-9</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="9">
         <f t="shared" si="5"/>
         <v>6.6810292315994006E-11</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="8">
+      <c r="H23" s="10"/>
+      <c r="I23" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <f t="shared" si="1"/>
         <v>1E+22</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>2.01467286689315E+20</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <f t="shared" si="2"/>
         <v>2.0146728668931502</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <f t="shared" si="3"/>
         <v>100000000000</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="13">
         <f t="shared" si="4"/>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <f t="shared" si="5"/>
         <v>2.0146728668931505E-11</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="8">
+      <c r="H24" s="10"/>
+      <c r="I24" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <f t="shared" si="1"/>
         <v>9.9999999999999992E+22</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>1.9253203916068E+21</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <f t="shared" si="2"/>
         <v>1.9253203916068</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <f t="shared" si="3"/>
         <v>316227766016.83789</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="13">
         <f t="shared" si="4"/>
         <v>3.162277660168379E-10</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <f t="shared" si="5"/>
         <v>6.0883976630448184E-12</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="8">
+      <c r="H25" s="10"/>
+      <c r="I25" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f t="shared" si="1"/>
         <v>9.9999999999999998E+23</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>1.84355997673492E+22</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <f t="shared" si="2"/>
         <v>1.8435599767349202</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <f t="shared" si="3"/>
         <v>1000000000000</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="13">
         <f t="shared" si="4"/>
         <v>1E-10</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="9">
         <f t="shared" si="5"/>
         <v>1.8435599767349203E-12</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="8">
+      <c r="H26" s="10"/>
+      <c r="I26" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f t="shared" si="1"/>
         <v>1.0000000000000001E+25</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <v>1.7684630939914299E+23</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <f t="shared" si="2"/>
         <v>1.7684630939914296</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <f t="shared" si="3"/>
         <v>3162277660168.3794</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="13">
         <f t="shared" si="4"/>
         <v>3.1622776601683794E-11</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="9">
         <f t="shared" si="5"/>
         <v>5.5923713349613515E-13</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="8">
+      <c r="H27" s="10"/>
+      <c r="I27" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f t="shared" si="1"/>
         <v>1E+26</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>1.6992467508724299E+24</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <f t="shared" si="2"/>
         <v>1.6992467508724296</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <f t="shared" si="3"/>
         <v>10000000000000</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="13">
         <f>100*(E28)/B28</f>
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="9">
         <f t="shared" si="5"/>
         <v>1.6992467508724294E-13</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8">
+      <c r="H28" s="10"/>
+      <c r="I28" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1602,4 +1770,625 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D10:Q39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>8</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f>I22+1</f>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>9</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="15.42578125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <f>C10</f>
+        <v>1000</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="23">
+        <f>C12</f>
+        <v>2005</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="23">
+        <f>C14</f>
+        <v>3010</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="15">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>